--- a/artfynd/A 61153-2024 artfynd.xlsx
+++ b/artfynd/A 61153-2024 artfynd.xlsx
@@ -1386,7 +1386,7 @@
         <v>122354442</v>
       </c>
       <c r="B8" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
